--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{BD0BAD1C-C951-4CC4-AA80-2B541A430D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF58DB-A1CC-42D4-97F6-D67397542984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>*Отче наш, Отец Небесный! Волею Создателя, Пророка и Народа Пространство СВЯТАЯ РУСЬ ЕСМЬ Любовь, и Так Будет Навечно!*</t>
-  </si>
-  <si>
-    <t>10:55-11:0</t>
-  </si>
-  <si>
-    <t>11:0-11:5</t>
-  </si>
-  <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -51,13 +36,10 @@
     <t>№</t>
   </si>
   <si>
-    <t>8:35-8:40</t>
+    <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
   </si>
   <si>
-    <t>8:40-8:45</t>
-  </si>
-  <si>
-    <t>*Покаяние.* Отче наш, Отец Небесный, прошу Тебя простить все мои прегрешения, вольные и невольные. Аминь!*Молитва.*ОТЧЕ НАШ, ОТЕЦ НЕБЕСНЫЙ, Я ПРИНИМАЮ ВЕРУ ТВОЮ, ОНА ЕСТЬ МОЙ ПУТЬ, Я ПРИНИМАЮ КАНОНЫ ТВОИ ВЕЧНЫЕ, С ЛЮБОВЬЮ К ТЕБЕ И ДЕЛАМ ТВОИМ, ПОДТВЕРЖДАЯ СВОЕЙ ЖИЗНЬЮ ВЕРНОСТЬ ТЕБЕ. ГОСПОДИ, ПРОШУ ДАТЬ МНЕ НАДЕЖДУ НА СПАСЕНИЕ ДУШИ МОЕЙ, И ДАРОВАТЬ МУДРОСТЬ ТВОЮ ДЛЯ ЖИЗНИ МОЕЙ ЗДЕСЬ, НА ПЛАНЕТЕ СВЯТАЯ РУСЬ И В ВЕЧНОСТИ. ПУСТЬ СВЯТА БУДЕТ УВЕРЕННОСТЬ МОЯ, ЧТО ТЫ ЕСМЬ! Господи, я Люблю Тебя, Благодарю Тебя и Уповаю на Милость Твою! Аминь!</t>
+    <t>U2FsdGVkX1/gIUGEizncYlSscEtCg92aHZMTBJALFwc=</t>
   </si>
 </sst>
 </file>
@@ -387,11 +369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,60 +385,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF58DB-A1CC-42D4-97F6-D67397542984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332434E8-AA28-4C6A-8C93-3E98231B8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
   </si>
   <si>
-    <t>U2FsdGVkX1/gIUGEizncYlSscEtCg92aHZMTBJALFwc=</t>
+    <t>13:15-13:20</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332434E8-AA28-4C6A-8C93-3E98231B8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A221C-37EE-4347-AB69-8832132827F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+uSMZWPh9qT+dXpFUxouwT+4p0znZbKwHwZnJH37GSiCeCmdRsRdYBpFjz6yycSGEHbXPiOZQSOgx25Ak70aJLQqHrB98ER2HZyEE1omZZ3yIMIgqEqcXF3s1kW1Fwo7RiKjFJ0kzFfVergxEiftrNFpSNdTib9ol+4Yt5vs8BGAuVZMfZhWq6aK3dyvHQk+ZJLCt0jDT/JZ64obTFWcIKQ2p6mc0gTlji+Rmh7bnonmKScPBEL4OjfMJId+hWCfWJ6Yjp2ZqsKVKWMSrgDfSxFv3FP50XMyjL1FP7S2rQTc9+JjePWzSi7RHlbX1+mRuCaqmY164GROmMnTqSaSkS8odllccGmDoc5H6WhVfKE6TV3r6cuZWX7u6sdPEvVf3w2IsoQi7ZB0AebPrcf88T8KbjFeFcGsmSgQVpQ0+u8cbJ7WlPMHQxBKh7kIxf+pGnbmiVLBjnfwOo/cSlyxxNEHSveN3/Xu5C6EJCe9+yiwtKhKFynSjClM/56la5ZAC+mNeEfqmZtMAbXC3d4PWE9QcJ9Oqa7JdnTby8HC5YYEmCThqLBd7Lcw4Lk/JJRUPg9MM8kJ+3W0RM4H33vp4LQn0MrZKC2mDmmXUtxNpHWJTuErBOjRoydThNbnoIJ8nMsm+dBHpv5oj9JeDd77mw524WEs8j0p1TUOWghTGfj76BsZEGJ6P1PFSSNIB9y9+3rkzCebzEGbhH2+eL8yomOWJxSAxJqGA4EPTqTbw1Dl3uH58VajHho1d3buD0fS297IPu6pLJKuTaUlvlgdLxtdnlhQkW+LVZKyOzyIh3B8MKlkdHOQNzY4ib+sn0xQJj4mNbVtZ5slwRJko3Iklrh666byXqUniklEYABJh80MJ0ojjyWld1F6GJRVxX6ZwndnFoOGMDm0JwpMejwvqnoDMhR/G5wgqDkG/JnbaQHnPj4W7AiWLkln+u1fADEi6Vyinrxg3x1CZWfCSorW3Jg+nQN1H4K31XgDbhqNUcr28qxOW//hzyQvlWN4DY6NngfuUdIUWx2hmp5sx0Ev93IwRGEJ2UxK5due/vdDp7rOeUtxdLhP9vE5pwYqgISkt7N/9aUt3r7w887VdlBuDWg2YgG4+0cLVnoAJhptrKhXljErWA4gLrUTdnbotHwulTY3WBHP0YKKGLAVVa2hA8vB9U9fmm+lgyukO5bpHHeKrbUCjupZgA8MtcO4JkLePicUCh0Dd2xx0F8VRXC5ZOnF6h9S8myqnbxqvMqyYgGJ3agqFOfjYo+N3NETW9tZQUaOfWMeSFGX8BqVhhzWwT0fDN4OsealA=</t>
+    <t>13:15-13:20</t>
   </si>
   <si>
-    <t>13:15-13:20</t>
+    <t>U2FsdGVkX1+IuIj1EkUoq5H/fWdtmWJJDlHwdRSVK/riF3fe3k79mZBMQsa2D3Cw4TBiZR5N327jbmal/0QTiSFryMdQh937Ohds9V0Tv7QUvA1LyNtmBhl9iEEFMV9wqGKMbg51r+SFA/J9C8i60wE51ZvuHoZQtaEfqNjCnkp8wQHkKDAZZE8AybBsZrsXGdjmx/G6oYBhi+KJSIzT+wy8AzPlJw47/sdcWugUfI0UIxpLqBhg5HJ9XF0PjV9iDNH4LdRRJZtRI9G5QT06Gr4fO9PgQrojRi83U8414QLHl55i7CGHR5JtLMgBh6z9hCqywrGYFpvxNU940kyefpqal3xtZ/tKDRlOvjc3znl+bVeeqJvx9HJGirw2e430MN1SPKYEr3nhdJbnkXriIpU31zcf3rU2PY5OpLXXtUEeCHQGI6+/qZhvhCudmbp54mDCTGfutjwYhls3aUImnTfhFa30/vpZ3L670m0IjxhBOajp8/DNkIwcwuVhp/fYyhHh0O9EzVje4ZmVQP8r/Gp8pF3nKtW9Sq6IiCc8p2kOYbv2yW3dX3dU+NMDIpfs9TMYamkqbwnaUf9m8qXBW/FCA3Hwaw8pPT83bQKnsIJ1LBzMgCUi9kyNg98GV5JqPXPG5WaWuhDh0fnMOc5Ry7Y3ys+E2V70HFRAJClKw9XktEUOKIK8bx8ITqMxTVg+v3K7C+lPrHqzQlP0sExaSZK596vvoZ1WGVWCSg6Z6JjWOV1RFFQYHfOWosNLc7j3xa/IP61CjxDRZOPF8K98iciS9LMldOTeMmqJzRmhjg/k8do3yDqt3yYnMID7B5+sbRBcRsDnR2BMptey580hczPa00tWwdYOpd/8DDX7j9wD3qmlPxbvUZRMDH03XpXxAnX8IfgZfeKQBIwnCBK8oVte5dObhF2gXX33S8o+l46ku9qfLokzQTyN0jt6hJw0qI0bafdopY3kEo9/MevGuLxHTWMGFXDBtNWscxrfNO4CbFILt2iO3kBThBA4cJO8x9T9DA9gkbUfKhFrJ2TM61DkYSDr1vVgIcrTSDphBiYhj4GYXMGZ9N5u5yX4L7FaFIEuyKy7odYK2vy5FyJnDlQvkq+GYdhgfPhWL6Fc7BeF0DN4Kn+flyDlERrYhu+EYDmzbpCTD/7dgp7ld2Vj/vKINAlpOlKuZ0p0gFoNAjFCN9ZmyQ1Yc6DSrdLf40fMfFrHv2MtgeFmeuvzN82Q4EZUA+/4+AjwsdLJEY2bX1bV3sg+o0lWNVFdECCdcW6Ib7tq/lzkrJrUgZXN2bOGRSjfvxdcBj8e1zRhj/nTtjM=</t>
   </si>
 </sst>
 </file>
@@ -396,10 +396,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A221C-37EE-4347-AB69-8832132827F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE451438-E8EB-4E83-A443-8D4371B3BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,10 +36,28 @@
     <t>№</t>
   </si>
   <si>
-    <t>13:15-13:20</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1+IuIj1EkUoq5H/fWdtmWJJDlHwdRSVK/riF3fe3k79mZBMQsa2D3Cw4TBiZR5N327jbmal/0QTiSFryMdQh937Ohds9V0Tv7QUvA1LyNtmBhl9iEEFMV9wqGKMbg51r+SFA/J9C8i60wE51ZvuHoZQtaEfqNjCnkp8wQHkKDAZZE8AybBsZrsXGdjmx/G6oYBhi+KJSIzT+wy8AzPlJw47/sdcWugUfI0UIxpLqBhg5HJ9XF0PjV9iDNH4LdRRJZtRI9G5QT06Gr4fO9PgQrojRi83U8414QLHl55i7CGHR5JtLMgBh6z9hCqywrGYFpvxNU940kyefpqal3xtZ/tKDRlOvjc3znl+bVeeqJvx9HJGirw2e430MN1SPKYEr3nhdJbnkXriIpU31zcf3rU2PY5OpLXXtUEeCHQGI6+/qZhvhCudmbp54mDCTGfutjwYhls3aUImnTfhFa30/vpZ3L670m0IjxhBOajp8/DNkIwcwuVhp/fYyhHh0O9EzVje4ZmVQP8r/Gp8pF3nKtW9Sq6IiCc8p2kOYbv2yW3dX3dU+NMDIpfs9TMYamkqbwnaUf9m8qXBW/FCA3Hwaw8pPT83bQKnsIJ1LBzMgCUi9kyNg98GV5JqPXPG5WaWuhDh0fnMOc5Ry7Y3ys+E2V70HFRAJClKw9XktEUOKIK8bx8ITqMxTVg+v3K7C+lPrHqzQlP0sExaSZK596vvoZ1WGVWCSg6Z6JjWOV1RFFQYHfOWosNLc7j3xa/IP61CjxDRZOPF8K98iciS9LMldOTeMmqJzRmhjg/k8do3yDqt3yYnMID7B5+sbRBcRsDnR2BMptey580hczPa00tWwdYOpd/8DDX7j9wD3qmlPxbvUZRMDH03XpXxAnX8IfgZfeKQBIwnCBK8oVte5dObhF2gXX33S8o+l46ku9qfLokzQTyN0jt6hJw0qI0bafdopY3kEo9/MevGuLxHTWMGFXDBtNWscxrfNO4CbFILt2iO3kBThBA4cJO8x9T9DA9gkbUfKhFrJ2TM61DkYSDr1vVgIcrTSDphBiYhj4GYXMGZ9N5u5yX4L7FaFIEuyKy7odYK2vy5FyJnDlQvkq+GYdhgfPhWL6Fc7BeF0DN4Kn+flyDlERrYhu+EYDmzbpCTD/7dgp7ld2Vj/vKINAlpOlKuZ0p0gFoNAjFCN9ZmyQ1Yc6DSrdLf40fMfFrHv2MtgeFmeuvzN82Q4EZUA+/4+AjwsdLJEY2bX1bV3sg+o0lWNVFdECCdcW6Ib7tq/lzkrJrUgZXN2bOGRSjfvxdcBj8e1zRhj/nTtjM=</t>
+    <t>U2FsdGVkX18GwQhBbrS0mtak6vzynMD8Hu2/fDkarVoyt0+Tr/IOTIj8oLOOZn74Ldb7kQzWhEFw40b1VWY8B8rF7tZmyiwksHf/ul/SVbyrDZF4enLa3LQ1bML/Zp1W56aKIwp3R2m08zE8OO5WNdofBVm/ELy+HCi+ZfuE11iI/J0PxAa5gmjSdI2gpwS3g8qs+/bliQGE32dOMkEHRgYZqhZzZe3OO/lH2ilKvvqj9mGLpTMpvwCKVfH3hsUdU8JeBj3+8HNF9SilKTrxK1icrcXAX5/UPznNmGHEo1WHhBb0VsUt2OTKKxYf656pNT+eRfTEQKA/0JbGac/hH36a8tguW0nzPCBNKp6+gGZNN2NQtG/0NTXr2vJHC3UPBpunN5fUGMPM8EDFH452lVpXhkCBiU7xdC+7cEWZ7B5usqnfSFVtHJVoNReC2n0J8N9ljuEIB+d5z6tSmBS33RWOHLZEf+h125R4KYWuMQm5jCh4YNupKZX83K60mMCgwsIqz9BAzuRC2iJ+wBaF7NrEJO0p8YDnO3vyI6sWinplGVKgVkQKdo+rcoJspJsVNSCE6BasuYU42KWVMkUzkUKeEs/FWmC+/u9hZoqmfNgxZ4VWfWkezhdb3sqo1RZ7jyrFzTFlW9SPuPU9J4ueESYfvah2a0dbvuw+5jLs2PdayFkrosdMqUPs6KTDnax+J76XTtqTanbJ+d5FKaX2ZAVeEgxUP/7F6KoYFbbEebgkOGplx8fXkmXSMuQYoSEYiqKVE7BVI8qyQA7QB/TY8Q2wx+7Ns/2Ngi7pSyKQQDavZ6Ra4OnedpETxxR6W8Kb8dS9/wuTi6ymx8t8tVkogZFqOttoVlJwb3aNRTr8frg47WHTzmMH2fiSXwP6N9KUiyuiOJ0LRxEQVXhCue84cgXmWp/cuUfFmuqBV2amc3nyNoMdv4G2JmSzJiBQpE3ASnxsVnAJz+S3rfY/OjV4k1Bg+i33ZDfSsaWXejjip/6vVECRyrXS6neVfWTMKpgWGcjgKw+5ba6vKNSbtk8O/k5EYgLS9F+yC2gyZlx9jUSwNX2024kmPMOaaiaee6cVGujJuAhclqluGbwxqL2AFbo78O91kE+2ip8JofbTQsg2OWE4M7iwpty0acjalA1/xJpQgipQQfsQIi2ou4paI4H/JzvkV3GnRJECSu7zUPYVy5kYH16Mjdc/fXZ5nj/gie92116zm1BGcceTGr7id2h/7cXsf25woHKqt6ketg3UjxPBpzfHMt4Jzr5mZ7IaQaV3t3efddZv14md9FH2fyZeeOCw+ehxbepQNzBO9fo=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
+  </si>
+  <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
+    <t>10:55-11:0</t>
+  </si>
+  <si>
+    <t>11:0-11:5</t>
+  </si>
+  <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
   </si>
 </sst>
 </file>
@@ -369,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE451438-E8EB-4E83-A443-8D4371B3BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18GwQhBbrS0mtak6vzynMD8Hu2/fDkarVoyt0+Tr/IOTIj8oLOOZn74Ldb7kQzWhEFw40b1VWY8B8rF7tZmyiwksHf/ul/SVbyrDZF4enLa3LQ1bML/Zp1W56aKIwp3R2m08zE8OO5WNdofBVm/ELy+HCi+ZfuE11iI/J0PxAa5gmjSdI2gpwS3g8qs+/bliQGE32dOMkEHRgYZqhZzZe3OO/lH2ilKvvqj9mGLpTMpvwCKVfH3hsUdU8JeBj3+8HNF9SilKTrxK1icrcXAX5/UPznNmGHEo1WHhBb0VsUt2OTKKxYf656pNT+eRfTEQKA/0JbGac/hH36a8tguW0nzPCBNKp6+gGZNN2NQtG/0NTXr2vJHC3UPBpunN5fUGMPM8EDFH452lVpXhkCBiU7xdC+7cEWZ7B5usqnfSFVtHJVoNReC2n0J8N9ljuEIB+d5z6tSmBS33RWOHLZEf+h125R4KYWuMQm5jCh4YNupKZX83K60mMCgwsIqz9BAzuRC2iJ+wBaF7NrEJO0p8YDnO3vyI6sWinplGVKgVkQKdo+rcoJspJsVNSCE6BasuYU42KWVMkUzkUKeEs/FWmC+/u9hZoqmfNgxZ4VWfWkezhdb3sqo1RZ7jyrFzTFlW9SPuPU9J4ueESYfvah2a0dbvuw+5jLs2PdayFkrosdMqUPs6KTDnax+J76XTtqTanbJ+d5FKaX2ZAVeEgxUP/7F6KoYFbbEebgkOGplx8fXkmXSMuQYoSEYiqKVE7BVI8qyQA7QB/TY8Q2wx+7Ns/2Ngi7pSyKQQDavZ6Ra4OnedpETxxR6W8Kb8dS9/wuTi6ymx8t8tVkogZFqOttoVlJwb3aNRTr8frg47WHTzmMH2fiSXwP6N9KUiyuiOJ0LRxEQVXhCue84cgXmWp/cuUfFmuqBV2amc3nyNoMdv4G2JmSzJiBQpE3ASnxsVnAJz+S3rfY/OjV4k1Bg+i33ZDfSsaWXejjip/6vVECRyrXS6neVfWTMKpgWGcjgKw+5ba6vKNSbtk8O/k5EYgLS9F+yC2gyZlx9jUSwNX2024kmPMOaaiaee6cVGujJuAhclqluGbwxqL2AFbo78O91kE+2ip8JofbTQsg2OWE4M7iwpty0acjalA1/xJpQgipQQfsQIi2ou4paI4H/JzvkV3GnRJECSu7zUPYVy5kYH16Mjdc/fXZ5nj/gie92116zm1BGcceTGr7id2h/7cXsf25woHKqt6ketg3UjxPBpzfHMt4Jzr5mZ7IaQaV3t3efddZv14md9FH2fyZeeOCw+ehxbepQNzBO9fo=</t>
-  </si>
-  <si>
     <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>19:0-19:5</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14310B6-A6B2-4D55-86FC-B43C556BCAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -54,10 +54,25 @@
     <t>18:55-19:0</t>
   </si>
   <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+  </si>
+  <si>
+    <t>19:15-19:20</t>
+  </si>
+  <si>
+    <t>19:20-19:25</t>
+  </si>
+  <si>
+    <t>19:25-19:30</t>
+  </si>
+  <si>
+    <t>19:30-19:35</t>
+  </si>
+  <si>
+    <t>19:35-19:40</t>
+  </si>
+  <si>
+    <t>19:40-19:45</t>
   </si>
 </sst>
 </file>
@@ -387,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +429,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -430,7 +445,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -446,7 +461,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -454,10 +469,50 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14310B6-A6B2-4D55-86FC-B43C556BCAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E690C8-44AC-4A4A-B2EF-CDD8651C8B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,22 +57,22 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>19:15-19:20</t>
-  </si>
-  <si>
-    <t>19:20-19:25</t>
-  </si>
-  <si>
-    <t>19:25-19:30</t>
-  </si>
-  <si>
-    <t>19:30-19:35</t>
-  </si>
-  <si>
-    <t>19:35-19:40</t>
-  </si>
-  <si>
-    <t>19:40-19:45</t>
+    <t>21:15-21:20</t>
+  </si>
+  <si>
+    <t>21:20-21:25</t>
+  </si>
+  <si>
+    <t>21:25-21:30</t>
+  </si>
+  <si>
+    <t>21:30-21:35</t>
+  </si>
+  <si>
+    <t>21:35-21:40</t>
+  </si>
+  <si>
+    <t>21:40-21:45</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E690C8-44AC-4A4A-B2EF-CDD8651C8B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0642E-D19A-4B01-89C6-0DC74EF805D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,22 +57,22 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>21:15-21:20</t>
-  </si>
-  <si>
-    <t>21:20-21:25</t>
-  </si>
-  <si>
-    <t>21:25-21:30</t>
-  </si>
-  <si>
-    <t>21:30-21:35</t>
-  </si>
-  <si>
-    <t>21:35-21:40</t>
-  </si>
-  <si>
-    <t>21:40-21:45</t>
+    <t>21:50-21:55</t>
+  </si>
+  <si>
+    <t>22:0-22:5</t>
+  </si>
+  <si>
+    <t>21:55-22:0</t>
+  </si>
+  <si>
+    <t>22:5-22:10</t>
+  </si>
+  <si>
+    <t>22:10-22:15</t>
+  </si>
+  <si>
+    <t>22:15-22:20</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0642E-D19A-4B01-89C6-0DC74EF805D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB95010-34D6-48FC-A100-A4FCBAA7CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>22:5-22:10</t>
   </si>
   <si>
-    <t>22:10-22:15</t>
-  </si>
-  <si>
-    <t>22:15-22:20</t>
+    <t>22:20-22:25</t>
+  </si>
+  <si>
+    <t>22:25-22:30</t>
   </si>
 </sst>
 </file>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB95010-34D6-48FC-A100-A4FCBAA7CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0DDFB-BEFF-44DC-B53A-0B201803481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -57,22 +57,19 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>21:50-21:55</t>
-  </si>
-  <si>
-    <t>22:0-22:5</t>
-  </si>
-  <si>
-    <t>21:55-22:0</t>
-  </si>
-  <si>
-    <t>22:5-22:10</t>
-  </si>
-  <si>
-    <t>22:20-22:25</t>
-  </si>
-  <si>
-    <t>22:25-22:30</t>
+    <t>22:30-22:35</t>
+  </si>
+  <si>
+    <t>22:35-22:40</t>
+  </si>
+  <si>
+    <t>22:40-22:45</t>
+  </si>
+  <si>
+    <t>22:45-22:50</t>
+  </si>
+  <si>
+    <t>22:50-22:55</t>
   </si>
 </sst>
 </file>
@@ -402,11 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,14 +502,6 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0DDFB-BEFF-44DC-B53A-0B201803481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -54,22 +54,10 @@
     <t>18:55-19:0</t>
   </si>
   <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
-  </si>
-  <si>
-    <t>22:30-22:35</t>
-  </si>
-  <si>
-    <t>22:35-22:40</t>
-  </si>
-  <si>
-    <t>22:40-22:45</t>
-  </si>
-  <si>
-    <t>22:45-22:50</t>
-  </si>
-  <si>
-    <t>22:50-22:55</t>
   </si>
 </sst>
 </file>
@@ -399,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +414,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -442,7 +430,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -458,7 +446,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -466,42 +454,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C4BCA-C13C-446F-A87F-788116EDFE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -51,13 +51,25 @@
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+  </si>
+  <si>
+    <t>22:30-22:35</t>
+  </si>
+  <si>
+    <t>22:35-22:40</t>
+  </si>
+  <si>
+    <t>22:40-22:45</t>
+  </si>
+  <si>
+    <t>22:45-22:50</t>
+  </si>
+  <si>
+    <t>22:50-22:55</t>
+  </si>
+  <si>
+    <t>12:20-12:25</t>
   </si>
 </sst>
 </file>
@@ -387,11 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +426,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -430,7 +442,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -446,18 +458,50 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C4BCA-C13C-446F-A87F-788116EDFE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B00409-49F7-4C25-A60F-F6E4F521DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>22:30-22:35</t>
-  </si>
-  <si>
     <t>22:35-22:40</t>
   </si>
   <si>
@@ -69,7 +66,10 @@
     <t>22:50-22:55</t>
   </si>
   <si>
-    <t>12:20-12:25</t>
+    <t>12:25-12:30</t>
+  </si>
+  <si>
+    <t>12:30-12:35</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B00409-49F7-4C25-A60F-F6E4F521DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A93F0-DAF9-4957-BB7D-6BA6AD6F3B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>22:35-22:40</t>
-  </si>
-  <si>
     <t>22:40-22:45</t>
   </si>
   <si>
@@ -69,7 +66,10 @@
     <t>12:25-12:30</t>
   </si>
   <si>
-    <t>12:30-12:35</t>
+    <t>12:50-12:55</t>
+  </si>
+  <si>
+    <t>12:55-13:0</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A93F0-DAF9-4957-BB7D-6BA6AD6F3B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C48B8-7213-43B1-9D79-E7FE663A3EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
   <si>
-    <t>22:40-22:45</t>
-  </si>
-  <si>
     <t>22:45-22:50</t>
   </si>
   <si>
@@ -69,7 +66,10 @@
     <t>12:50-12:55</t>
   </si>
   <si>
-    <t>12:55-13:0</t>
+    <t>13:5-13:10</t>
+  </si>
+  <si>
+    <t>13:10-13:15</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C48B8-7213-43B1-9D79-E7FE663A3EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08855C7-6AAC-4D7E-99DF-24BFDC692F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>12:50-12:55</t>
   </si>
   <si>
-    <t>13:5-13:10</t>
-  </si>
-  <si>
-    <t>13:10-13:15</t>
+    <t>13:25-13:30</t>
+  </si>
+  <si>
+    <t>13:30-13:35</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08855C7-6AAC-4D7E-99DF-24BFDC692F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA8454-1FF5-4E57-A62C-63ADC08D2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>12:50-12:55</t>
   </si>
   <si>
-    <t>13:25-13:30</t>
-  </si>
-  <si>
-    <t>13:30-13:35</t>
+    <t>14:10-14:15</t>
+  </si>
+  <si>
+    <t>14:15-14:20</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FA8454-1FF5-4E57-A62C-63ADC08D2232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -51,25 +51,13 @@
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
-  </si>
-  <si>
-    <t>22:45-22:50</t>
-  </si>
-  <si>
-    <t>22:50-22:55</t>
-  </si>
-  <si>
-    <t>12:25-12:30</t>
-  </si>
-  <si>
-    <t>12:50-12:55</t>
-  </si>
-  <si>
-    <t>14:10-14:15</t>
-  </si>
-  <si>
-    <t>14:15-14:20</t>
   </si>
 </sst>
 </file>
@@ -399,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +414,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -442,7 +430,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -458,50 +446,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E73B853-B5B2-4595-9F40-7F4E69034140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
-  </si>
-  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -51,13 +48,25 @@
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+    <t>12:25-12:30</t>
+  </si>
+  <si>
+    <t>12:50-12:55</t>
+  </si>
+  <si>
+    <t>14:10-14:15</t>
+  </si>
+  <si>
+    <t>14:15-14:20</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18TZnPw9mSh8RvSW4+879mztM+lFAIjdQNi5gBI8Te3ngM8KQbwAlXcm3N/M7mKtkzGzavZieqPMDoCvWWTxJ+O6t4ztmfvS7EmHZDLHw+wp6bspq2Yve7xnTxhx0sCw3nc4IWmsLvX3g==</t>
+  </si>
+  <si>
+    <t>21:25-21:30</t>
+  </si>
+  <si>
+    <t>21:30-21:35</t>
   </si>
 </sst>
 </file>
@@ -387,11 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +423,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E73B853-B5B2-4595-9F40-7F4E69034140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE23197-119C-4906-9423-C9F02E17F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>14:15-14:20</t>
   </si>
   <si>
-    <t>U2FsdGVkX18TZnPw9mSh8RvSW4+879mztM+lFAIjdQNi5gBI8Te3ngM8KQbwAlXcm3N/M7mKtkzGzavZieqPMDoCvWWTxJ+O6t4ztmfvS7EmHZDLHw+wp6bspq2Yve7xnTxhx0sCw3nc4IWmsLvX3g==</t>
-  </si>
-  <si>
     <t>21:25-21:30</t>
   </si>
   <si>
     <t>21:30-21:35</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+s1oRPt0B7OcjpVP5f3IBhIA53DP6hmaIufy/vOcfu72zH6t1I7wrJH9m3kgsE3/e9RQkIhB+/5g==</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -487,18 +487,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE23197-119C-4906-9423-C9F02E17F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,6 +36,9 @@
     <t>№</t>
   </si>
   <si>
+    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
+  </si>
+  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -48,25 +51,13 @@
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>12:25-12:30</t>
-  </si>
-  <si>
-    <t>12:50-12:55</t>
-  </si>
-  <si>
-    <t>14:10-14:15</t>
-  </si>
-  <si>
-    <t>14:15-14:20</t>
-  </si>
-  <si>
-    <t>21:25-21:30</t>
-  </si>
-  <si>
-    <t>21:30-21:35</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1+s1oRPt0B7OcjpVP5f3IBhIA53DP6hmaIufy/vOcfu72zH6t1I7wrJH9m3kgsE3/e9RQkIhB+/5g==</t>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
   </si>
 </sst>
 </file>
@@ -396,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,82 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE23197-119C-4906-9423-C9F02E17F570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
-  </si>
-  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -51,13 +48,25 @@
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+    <t>12:25-12:30</t>
+  </si>
+  <si>
+    <t>12:50-12:55</t>
+  </si>
+  <si>
+    <t>14:10-14:15</t>
+  </si>
+  <si>
+    <t>14:15-14:20</t>
+  </si>
+  <si>
+    <t>21:25-21:30</t>
+  </si>
+  <si>
+    <t>21:30-21:35</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+s1oRPt0B7OcjpVP5f3IBhIA53DP6hmaIufy/vOcfu72zH6t1I7wrJH9m3kgsE3/e9RQkIhB+/5g==</t>
   </si>
 </sst>
 </file>
@@ -387,11 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +423,82 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995488F5-6723-4584-B892-6F5B1D55068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD78522-E9B7-486F-BC96-3C0865929294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
-  </si>
-  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -51,13 +48,16 @@
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>U2FsdGVkX1+SHshU4/0vmkrFjgM5GaPFhmwH220YLrbOM3uP+towDO/6RJ4AqiX/f9uqXP8kR3O2d8Zkig9+JjD9w90DNg3soxrSShkFADlEnhB4wTrx8Gp6XzTDDAswJFWGfk+Qb9/QiCJLCHfYfIXM8B1lk9Fc7pieqDEDLYc9z0q9Nwmn5g8c1TQuEsnvsykRXIOF/is9tdEdboCsYO5HoozfzjJxQ9pw9RFwQHxI8O8UkFVQ5LbEF1jvzhpTU2sD0t5v2qnRK5tag95Qs/IpmWpCDevexzdGYY+VrM8Yvmk8KWekLiW4MCmYgERQIbTI2nXNrGa9tIceAk+f0uZN9gEgdZH72R0tkhBBWx7p+DPk8GQMsVbK3hC1UJBJ8Em8vpkM6O7jED/QnayKYM17/o0FUNK/yozpvmqsb9AJdhcU0ZqlLEoLRPSG/iPZh2GD2upUXf4RuhrgpywGsfRuwgKWKdLEXSwg9RQFU8Yo1nctY//HHcBMU+GORH3gkHjC2n3i+f/us6XCX08GOvArx2/aYfyfndw5uxv38egarzYAWnTZ+5Iaetuu0Wz7qBbZqZN5fXlQ8PaVel8bWUGRKm8VuKKIi6XR5EtgoRyEi6NaamOVgjWKC4MARK87aB1UcJX2K+nS3bsurIyvLD12wTOwpo8d5EwuZ1tsBTrHE0PRmEMlJjVIn5KgNOn04NVpA4eTOhYvhlTLJzUBhH47iLnTvRbTmLto0dcvNKuVgXiTcG1we7AtX871h6WyeBA79WiYh6CY3hPusALKJUI1JGjWDCmNdVKfk5RtljmdtW+WCJxVAl6fUjyqIwMzISoiv+PkrjS6Oj9zX7bZwtDfzGRVYQaw4Ur22/tA1fpwmq4C+jtfyZcinqB20U37ASCCXfCSu1ANlnfnumLjLJ6k6vTvchC8l1hPHprWr/TF91XKIBJJCe4Dc0uZgAGjOCmfOlXH2fCGbYYGJgqGYQaBozpD13Y5AyWqPRhZtSN169qxqOYERhDYDpTCfpGBbY8URcB8CMl92PBosttAGR0db8bZzIwkHSbu7BXG2K9OmFgwjgMvO0nBNH8OdK6sSFp+bfk0gCdmOp8wkSf5NFhudsTl9jH60ZZEa0RZSzd1POjirTwFqy/PVviuILEQccz67eCDlFKnx6/pX3uI4oV3c2oKXmj7BuXS8c5RR4SZeAQA/o1ny6gKdn4xRKuvBF287b32JTAZ2hM5wGuuojqx88VLtSr7+eIurJS8ga3ri0XV0Rb6J48k5NT9F7qKwZ96XHseCT18Xf0mYCNKiAd6w21BOnJaaunNWm3L93g=</t>
+  </si>
+  <si>
     <t>18:55-19:0</t>
   </si>
   <si>
     <t>19:0-19:5</t>
   </si>
   <si>
-    <t>U2FsdGVkX1/uaCilOc9bb4XC5m5Y6DQN8bfZxHVA8sJ10SIoCpbpYjkD/3CmdJ46xhtaSBZv7CuQwilp2QwRMP7CyrHzY1U616pbYkm82+aoAa6sdI69qDyrtd7zCl7gZIt+NAniqZVzpa31YfpTZ7t99v+ziPwzc/Z00is155mUQJId4enTVgK76dck9LmoyK+bWxLYLpSovqZgZ4f7idlk7UkJBXKaVlR8wAdtOdM7YToEpstJc5mOyXF87tQyq7XIcVLaNT9LlDJoTgJL34lD8bnqdzQMZ/8xS4wExQK2PJ1Cw2WTBfJXKSKio2CFOfGM7RsWt96LA+XGRVZfE0+SgvfnrbXhCpTiWvIDe94HDOXNrU6nHfGYnOssmAExU7MJZlnumJU0oG/aiXInemQSjwtmGqAiLqkOR4FcyfctNzy6VkEBN+Fj60CLvMHg9EZlomjwupZcUrou+EjQ/Gg+fbvgLw6crqYs55hE4sftk1z4CwVp/HgFiFcnDlUgKUrhvyB6NQb6JS8u6n/ui2me0q0SIUH5Tp7NrfzQq/XFxkfOF756nBEp9lKmrBb/aD6MdSK27O+zlAbaq6ejU5Q33W5IJ/uEIQCexz/m1d5F814OhXL6osdG/BBV5HndVi5VEs3C8ON4/2ei4lq+gi7Wkqfza4Wi1kp0/YkGfGyQqkqwpvwIpo5jB5tjrIpBak5M3ONmp4zz92jR9H5heHCv28RCBa0ggy9oJgV2B0F8VtS+hvsGGNvjnY8SBOHwTjQqLZIAVs4l0SNd6ToEIVldiTYU9I015k277nQEVjgq6V+M6WlARzvNqesVRGrEl/QxChjIjaWRuJGWeQ7j89KPIso2K0ujiYwnDLof4j4VvHmnMB3gOqZbwJLhvIY6Yu7xCx9F3afBQYzXIpcvJ/M+3mX3KvVj3RXoVILgiblVKOaRjNaKveRLHFcxwwiA29AdZsngI0wmLqwb4IsDzHK0p3nyFaStFDoZTaNc2d4UtXOpTObha+WaeqQgLgogV/bQVp5UTH8hxfNoUloPjHFjkWhigGSF4gKIfiTpnSBjaOu0dGt0rZYdZvxJblmvTwi731SColrLiFCNOmE4x7gt8kqSMl5C3Ay2Hb1Y3WU6ACA05lzwX5MOqvG9kwmH2GxN516MjBjn5yc7tPWyKHg1zl5eE/fjv5WxttZthTHfvaAtpeEGQv1xMPs6DQPYI5GROMAxAfnoTnJGNgcEXFWSy7UhIdKv+Pkkgf2yvZuk3xoH4NDhk0iuyJtIdLPuYv5w/jblH0AUILavcqnrLa0e7UfxFFLjUamJg9pUbLo=</t>
+    <t>U2FsdGVkX1//PByWnO0jHrn2mZx5+i/56n9OWuHlT2nh176eIoNaiMC3x+pvJRYIywkvduW5FvX31S9wPxI8E9DBVasntf44SaGcagTmpxpvQm1XLe+bxXtUaDZhX8jjflZPhzuCICW3gO7HmAoMxD/MNAb1KzaevR/eQw06HGEXYQ+pT07loWptcw37RpXVC0LtUcLcgoL4QSyRoYU8nDG+NRDKMw/26oicMj+o7xjqlJr3kZI+OuaQKaVeVy0yoLbxCnuqcuzkfx5Rpg2hyxUmoZvScoiXsCj4a0SCAiIAqlsZowCopGowcBdefzuH</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,39 +414,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD78522-E9B7-486F-BC96-3C0865929294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77393E-68CB-4037-B8FF-C6797686B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,9 @@
     <t>№</t>
   </si>
   <si>
+    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
+  </si>
+  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -48,16 +51,13 @@
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1+SHshU4/0vmkrFjgM5GaPFhmwH220YLrbOM3uP+towDO/6RJ4AqiX/f9uqXP8kR3O2d8Zkig9+JjD9w90DNg3soxrSShkFADlEnhB4wTrx8Gp6XzTDDAswJFWGfk+Qb9/QiCJLCHfYfIXM8B1lk9Fc7pieqDEDLYc9z0q9Nwmn5g8c1TQuEsnvsykRXIOF/is9tdEdboCsYO5HoozfzjJxQ9pw9RFwQHxI8O8UkFVQ5LbEF1jvzhpTU2sD0t5v2qnRK5tag95Qs/IpmWpCDevexzdGYY+VrM8Yvmk8KWekLiW4MCmYgERQIbTI2nXNrGa9tIceAk+f0uZN9gEgdZH72R0tkhBBWx7p+DPk8GQMsVbK3hC1UJBJ8Em8vpkM6O7jED/QnayKYM17/o0FUNK/yozpvmqsb9AJdhcU0ZqlLEoLRPSG/iPZh2GD2upUXf4RuhrgpywGsfRuwgKWKdLEXSwg9RQFU8Yo1nctY//HHcBMU+GORH3gkHjC2n3i+f/us6XCX08GOvArx2/aYfyfndw5uxv38egarzYAWnTZ+5Iaetuu0Wz7qBbZqZN5fXlQ8PaVel8bWUGRKm8VuKKIi6XR5EtgoRyEi6NaamOVgjWKC4MARK87aB1UcJX2K+nS3bsurIyvLD12wTOwpo8d5EwuZ1tsBTrHE0PRmEMlJjVIn5KgNOn04NVpA4eTOhYvhlTLJzUBhH47iLnTvRbTmLto0dcvNKuVgXiTcG1we7AtX871h6WyeBA79WiYh6CY3hPusALKJUI1JGjWDCmNdVKfk5RtljmdtW+WCJxVAl6fUjyqIwMzISoiv+PkrjS6Oj9zX7bZwtDfzGRVYQaw4Ur22/tA1fpwmq4C+jtfyZcinqB20U37ASCCXfCSu1ANlnfnumLjLJ6k6vTvchC8l1hPHprWr/TF91XKIBJJCe4Dc0uZgAGjOCmfOlXH2fCGbYYGJgqGYQaBozpD13Y5AyWqPRhZtSN169qxqOYERhDYDpTCfpGBbY8URcB8CMl92PBosttAGR0db8bZzIwkHSbu7BXG2K9OmFgwjgMvO0nBNH8OdK6sSFp+bfk0gCdmOp8wkSf5NFhudsTl9jH60ZZEa0RZSzd1POjirTwFqy/PVviuILEQccz67eCDlFKnx6/pX3uI4oV3c2oKXmj7BuXS8c5RR4SZeAQA/o1ny6gKdn4xRKuvBF287b32JTAZ2hM5wGuuojqx88VLtSr7+eIurJS8ga3ri0XV0Rb6J48k5NT9F7qKwZ96XHseCT18Xf0mYCNKiAd6w21BOnJaaunNWm3L93g=</t>
-  </si>
-  <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1//PByWnO0jHrn2mZx5+i/56n9OWuHlT2nh176eIoNaiMC3x+pvJRYIywkvduW5FvX31S9wPxI8E9DBVasntf44SaGcagTmpxpvQm1XLe+bxXtUaDZhX8jjflZPhzuCICW3gO7HmAoMxD/MNAb1KzaevR/eQw06HGEXYQ+pT07loWptcw37RpXVC0LtUcLcgoL4QSyRoYU8nDG+NRDKMw/26oicMj+o7xjqlJr3kZI+OuaQKaVeVy0yoLbxCnuqcuzkfx5Rpg2hyxUmoZvScoiXsCj4a0SCAiIAqlsZowCopGowcBdefzuH</t>
   </si>
 </sst>
 </file>
@@ -414,39 +414,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B77393E-68CB-4037-B8FF-C6797686B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F324FF7-CA71-48EB-9D23-0E1A25F8D526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>U2FsdGVkX18CeviQ24hIEERMC5lllAkCyTq8qB+K1J8ELLtppxyKsUFxOE+nntq9/WW38YXJQgmprt6+xWNAmDhQSQC6lExckmwooXEjTNnJ3+9TvopXVeVD4S0/efSymJkoILmDy9RhiqXoSqODsFf1mw71a6OLivpxueg/q+qqYdvq9yTI5iNQnz8y5ZvghwX8Tnm229QpdNMizeUnveiSMqY7iXdMtRUQvaeCOZiQmAcsaONQgiZHeeIJfpeKgFkOVDkheWibIj5j8MfxlLI/fFNKAEvF/SJnCDktvpPdSOUz0PHB2+E7GdBSsjK5</t>
-  </si>
-  <si>
     <t>2:55-3:0</t>
   </si>
   <si>
@@ -57,7 +54,10 @@
     <t>19:0-19:5</t>
   </si>
   <si>
-    <t>U2FsdGVkX1+SHshU4/0vmkrFjgM5GaPFhmwH220YLrbOM3uP+towDO/6RJ4AqiX/f9uqXP8kR3O2d8Zkig9+JjD9w90DNg3soxrSShkFADlEnhB4wTrx8Gp6XzTDDAswJFWGfk+Qb9/QiCJLCHfYfIXM8B1lk9Fc7pieqDEDLYc9z0q9Nwmn5g8c1TQuEsnvsykRXIOF/is9tdEdboCsYO5HoozfzjJxQ9pw9RFwQHxI8O8UkFVQ5LbEF1jvzhpTU2sD0t5v2qnRK5tag95Qs/IpmWpCDevexzdGYY+VrM8Yvmk8KWekLiW4MCmYgERQIbTI2nXNrGa9tIceAk+f0uZN9gEgdZH72R0tkhBBWx7p+DPk8GQMsVbK3hC1UJBJ8Em8vpkM6O7jED/QnayKYM17/o0FUNK/yozpvmqsb9AJdhcU0ZqlLEoLRPSG/iPZh2GD2upUXf4RuhrgpywGsfRuwgKWKdLEXSwg9RQFU8Yo1nctY//HHcBMU+GORH3gkHjC2n3i+f/us6XCX08GOvArx2/aYfyfndw5uxv38egarzYAWnTZ+5Iaetuu0Wz7qBbZqZN5fXlQ8PaVel8bWUGRKm8VuKKIi6XR5EtgoRyEi6NaamOVgjWKC4MARK87aB1UcJX2K+nS3bsurIyvLD12wTOwpo8d5EwuZ1tsBTrHE0PRmEMlJjVIn5KgNOn04NVpA4eTOhYvhlTLJzUBhH47iLnTvRbTmLto0dcvNKuVgXiTcG1we7AtX871h6WyeBA79WiYh6CY3hPusALKJUI1JGjWDCmNdVKfk5RtljmdtW+WCJxVAl6fUjyqIwMzISoiv+PkrjS6Oj9zX7bZwtDfzGRVYQaw4Ur22/tA1fpwmq4C+jtfyZcinqB20U37ASCCXfCSu1ANlnfnumLjLJ6k6vTvchC8l1hPHprWr/TF91XKIBJJCe4Dc0uZgAGjOCmfOlXH2fCGbYYGJgqGYQaBozpD13Y5AyWqPRhZtSN169qxqOYERhDYDpTCfpGBbY8URcB8CMl92PBosttAGR0db8bZzIwkHSbu7BXG2K9OmFgwjgMvO0nBNH8OdK6sSFp+bfk0gCdmOp8wkSf5NFhudsTl9jH60ZZEa0RZSzd1POjirTwFqy/PVviuILEQccz67eCDlFKnx6/pX3uI4oV3c2oKXmj7BuXS8c5RR4SZeAQA/o1ny6gKdn4xRKuvBF287b32JTAZ2hM5wGuuojqx88VLtSr7+eIurJS8ga3ri0XV0Rb6J48k5NT9F7qKwZ96XHseCT18Xf0mYCNKiAd6w21BOnJaaunNWm3L93g=</t>
+    <t>U2FsdGVkX187Z7DZ8yFC16RQzkiQV+stP4rB8oVF0Y2TWt5bNRPjiZk+HVhJ8AsLXUqKhbqoRBuWaSCj5QfG/telsAMBhdhhUI3h66j/it0g4O2elFlmo8o1vJvMDmQPEPuryqOLG7ly6knCdC76QlZrW62lh+3hwUoB0X8d0ku8kohl5nAd4Uy9k0qkvj+WkFzi3lEV9UsYQLfkiRF/ASFH6AFCrlxEwDDczx/vdNZg1vZxZJQzhzYwleSWQ1z2oCwpyvFAHp2sP4o8kJar434j4xCF3LFfWPGbQWZU8fansC/d+BfwsZVVvxZlFhs/RLd71yYalLGh1/auNVTyLjVZwJuxI68AKiuff33Uu9SIkEZdeeVt6PIa288yke80JN/xJeru4kfmxqXPnUpNUPj8QFVM1duTt/RnEg+SS6U237i46oCU+2KCnEDucruYPk/KbSd9AAmCT/GeeyqAuXyel9eSOsm1RKq7PW4Wn1LZQE9qYPG9gpeHKlmWwgDVPHqthl8Qmzv9YuZLpVeheEiEmGeww0U9x/3q7oyRrvgWVCcpH4whNm86E4CyW1efTRH3RguABuirEq1XrE2XdlM8dNCNF0w+zOOSjaTOL0sg7dWHqY5O5CTICifCuGdnqzf2RCT4jOScVG7K0d1nsBYADw1e3A8HNJ6cVRjXBA/FtOxlmdn421F/fz8nH6dmbqCZNDIMOHUPppAVdisUTANDuVuEzseXgcj6FSl40j5/3rPQx9G1cl+shgeLxHbcMPVdM93+I0CGREJIEMhnafjQGo+Dp3Gqs+hGH7mSUIgLe4RcdY4PX5lbcaAsAwIqpLtTG1+hkBUmVf1pokvlu76YRZA3Dg1SsXAY3EtLbPAnHeaLdFqQscmTFuFTZeJguraC9C3C3WbZ9ntHzec3EsRXRE2D44mP4SaPNnKICHvI7TwS2NJYgRv5ceavyQ6OMODOEr+2C9L82zJJ3qagV59N0LzIwGcLIdTEUA3zeGTX/sXySL/ONMFe0WDKwo8wtLabtJiCFcM0VZQfKzDrXwFpc9nYXNe9ShVm2u3YnfAInJBugHiRz3U1V8oNeKge1c5PEPUpu1cGkIxazKBsgH8KcYtv1RB3dJ020jIKLHFYO1hoWCEGqqaoCNX0/NKVTOhcqM4tmXrdl2i+P/N9yXr2UGwQU+ZEEy3gn86yNU88sEZCXeBDPhYop8+7BQPaC9Wv/DGbnNXq6Dgehdgd9KAM/Vr4aPrH3zU3p/UkSnO2seMu/u52TRWUv7a5JkyBVLy6uU/h9YZrOgTkTlr+K2ECy0gXLTGNp5OVPTHwPOk=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1+CGjVhD+CR0a49FzlkMhhI3K+Y8+C1QeyBumB2n3WxPoEqjJXAMwxSnSae2J24lQnenQKtpArmjqxj+t0uHXtQXVNaOqP1aQZ3HpZzllebjXdijZJcGrwiiQ+NiTw6zk7+WMoalu2Qfa8RyLWN65FkEmlAYQdVOka+cKSUoCmM6Gg+FVYCGedC5FPeKmVxtWAwLl9wto1zXTlbVUClpkQJ3u0FOoNEqvqFgG2r2YWbj+F7wpesQ5blKeAchqas2sz6FxPaDrcnA5alS9OR3YGp2UML/oq864LB8mDOykE8WsWlygLJ5ulC</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F324FF7-CA71-48EB-9D23-0E1A25F8D526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D3A39-C49E-4FB6-B9BF-04C61EFA128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>19:0-19:5</t>
   </si>
   <si>
-    <t>U2FsdGVkX187Z7DZ8yFC16RQzkiQV+stP4rB8oVF0Y2TWt5bNRPjiZk+HVhJ8AsLXUqKhbqoRBuWaSCj5QfG/telsAMBhdhhUI3h66j/it0g4O2elFlmo8o1vJvMDmQPEPuryqOLG7ly6knCdC76QlZrW62lh+3hwUoB0X8d0ku8kohl5nAd4Uy9k0qkvj+WkFzi3lEV9UsYQLfkiRF/ASFH6AFCrlxEwDDczx/vdNZg1vZxZJQzhzYwleSWQ1z2oCwpyvFAHp2sP4o8kJar434j4xCF3LFfWPGbQWZU8fansC/d+BfwsZVVvxZlFhs/RLd71yYalLGh1/auNVTyLjVZwJuxI68AKiuff33Uu9SIkEZdeeVt6PIa288yke80JN/xJeru4kfmxqXPnUpNUPj8QFVM1duTt/RnEg+SS6U237i46oCU+2KCnEDucruYPk/KbSd9AAmCT/GeeyqAuXyel9eSOsm1RKq7PW4Wn1LZQE9qYPG9gpeHKlmWwgDVPHqthl8Qmzv9YuZLpVeheEiEmGeww0U9x/3q7oyRrvgWVCcpH4whNm86E4CyW1efTRH3RguABuirEq1XrE2XdlM8dNCNF0w+zOOSjaTOL0sg7dWHqY5O5CTICifCuGdnqzf2RCT4jOScVG7K0d1nsBYADw1e3A8HNJ6cVRjXBA/FtOxlmdn421F/fz8nH6dmbqCZNDIMOHUPppAVdisUTANDuVuEzseXgcj6FSl40j5/3rPQx9G1cl+shgeLxHbcMPVdM93+I0CGREJIEMhnafjQGo+Dp3Gqs+hGH7mSUIgLe4RcdY4PX5lbcaAsAwIqpLtTG1+hkBUmVf1pokvlu76YRZA3Dg1SsXAY3EtLbPAnHeaLdFqQscmTFuFTZeJguraC9C3C3WbZ9ntHzec3EsRXRE2D44mP4SaPNnKICHvI7TwS2NJYgRv5ceavyQ6OMODOEr+2C9L82zJJ3qagV59N0LzIwGcLIdTEUA3zeGTX/sXySL/ONMFe0WDKwo8wtLabtJiCFcM0VZQfKzDrXwFpc9nYXNe9ShVm2u3YnfAInJBugHiRz3U1V8oNeKge1c5PEPUpu1cGkIxazKBsgH8KcYtv1RB3dJ020jIKLHFYO1hoWCEGqqaoCNX0/NKVTOhcqM4tmXrdl2i+P/N9yXr2UGwQU+ZEEy3gn86yNU88sEZCXeBDPhYop8+7BQPaC9Wv/DGbnNXq6Dgehdgd9KAM/Vr4aPrH3zU3p/UkSnO2seMu/u52TRWUv7a5JkyBVLy6uU/h9YZrOgTkTlr+K2ECy0gXLTGNp5OVPTHwPOk=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1+CGjVhD+CR0a49FzlkMhhI3K+Y8+C1QeyBumB2n3WxPoEqjJXAMwxSnSae2J24lQnenQKtpArmjqxj+t0uHXtQXVNaOqP1aQZ3HpZzllebjXdijZJcGrwiiQ+NiTw6zk7+WMoalu2Qfa8RyLWN65FkEmlAYQdVOka+cKSUoCmM6Gg+FVYCGedC5FPeKmVxtWAwLl9wto1zXTlbVUClpkQJ3u0FOoNEqvqFgG2r2YWbj+F7wpesQ5blKeAchqas2sz6FxPaDrcnA5alS9OR3YGp2UML/oq864LB8mDOykE8WsWlygLJ5ulC</t>
+    <t>U2FsdGVkX19sragcVTigGCm2nUuDT4D+mpoRBq06kxd/HdofgvstuRyBq8MRqt523ciWMWaZJB0fN36DhpLoGbNGBJPfIO2nc3ksb9JkBwS2/sHLN+wzUZzaPFZ3eHCe09myG9/0jSPW4vmFwU0cW/FAy0JenTrvej39oI1H2mMZFy4G8014CTWXMR1d2DXVuKT7vLZfnlJGwcyfpWzN8/wslO2knwakj1pozUB40vARBNaHbkY2eoNG4m3pcdmSdJmCHu++x41rhLkJJBExQMqrUE7jJebu+kLzBIcXlaP05d53NfChweOykwAgXFZXDH8dJ1kcA9ZWvtzrDUcDjRB3zjfj7IcQmh4SOLoI95wZbguQMUgPSH/Xre4IXY8HmIq4g8247SoFUWNt28UZNqmBN9Xy+HCL76TZ5yGtKGATWcS9NaaXPyL9/55WlWdrgyV980ijCExl7HGbVtaluO2ittqgMsc5+0lM1m2Es9bflFrTELggE9O8zLtUQl/Z1uTN3FSvSzXy0b28r9V+PhbY5M54IoggbWwCp6PI9sYktysDCUnIo9l6sFtC86LoxtwVlkoc7Wvskiwo4KRGv7qS/tCUiJbXA/pzj4i/ZYv569zQo9+AQRQsLfYW1SXjYEg16F0eCDzpfuOps9VRria9Aw0pNmRDIlDgPxwvPyimgBnnReTdyFe1W0jJn0zTaTHdJjpOAGzjPaY6UqCVPvj/aPOLmA/topAquKoP6XJ8x3Ug4puYOOAtKrUxc6QA+MiyViLUbndDw874G4ohcjCcfACAl0cZETFVFoJHYq4FpXtO08eeVwjWj9aT6U70tJazSUMxE9fUT73cYiX3iZ+bxXkDrxFD+owxogToT0xwQE/0vut21oU3CBtY0DMxSU9wiqi8NuVu/VtLfL62MB3x5uOg8LfbX9S9g61A5reOB2gleU+aIyjpDdxZGsHzVwI1STkhgxElMpzTaqDQkGbQHMEj0ECCcxvjj1l4TgGHduOvohKagiWV9yp5CUolduU4rYdjFngb+19JWIt1vF4E7RrcYUdzafZLvhaFOOToqfJu/IjrWPnk6xpXwjcZgY2tKzdd/TpV3xemopJlOwozBuhBjCjKuvR/IUAKRN/1eAagMPcFl5br2utSjS7gAFXSkUl1yrHhvkdvndnkVj7OqV7vv2h0yA0MWMGJpPAn6kshhBH5/SvgmT8FIeyL2By/T2mWHpkFCF12F6BdRm8m6/OG0VVU/fZuaaDsvt7KmTurG+RrOdVWH4s7wTXyp1n3HwhKVM7h2ijdumoUYWaH6XGweljaXci5qGX8ijw=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX1/2fMqQfazvOI1/KlI/nD3tv2y0P97TOx/eG7Z0SfuXnQUk9v1E0z2w5uYXSav66u5dWW0iRSfdniLq/906t4yf/ge+ppabjEWIKk35F8WhUGstKSMOa7vmTUsi/3O3N+Yl+DynVL8cNrr5JXVy1K1tIukx4u/NfEC5/K0kSx5haLCGn20cMSTTiHQwne7ysooJ6W9wltjHGHbyPb4FIK6Qnk5RTowv5KalBzWX+lkomn/qU0i9N9T2t2BbJGqisNgmzQlywtJDZstJa2wLoK57K8aqzH24FeDxa1SjGbuBJSNFUBhKAU0L</t>
   </si>
 </sst>
 </file>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D3A39-C49E-4FB6-B9BF-04C61EFA128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>19:0-19:5</t>
   </si>
   <si>
-    <t>U2FsdGVkX19sragcVTigGCm2nUuDT4D+mpoRBq06kxd/HdofgvstuRyBq8MRqt523ciWMWaZJB0fN36DhpLoGbNGBJPfIO2nc3ksb9JkBwS2/sHLN+wzUZzaPFZ3eHCe09myG9/0jSPW4vmFwU0cW/FAy0JenTrvej39oI1H2mMZFy4G8014CTWXMR1d2DXVuKT7vLZfnlJGwcyfpWzN8/wslO2knwakj1pozUB40vARBNaHbkY2eoNG4m3pcdmSdJmCHu++x41rhLkJJBExQMqrUE7jJebu+kLzBIcXlaP05d53NfChweOykwAgXFZXDH8dJ1kcA9ZWvtzrDUcDjRB3zjfj7IcQmh4SOLoI95wZbguQMUgPSH/Xre4IXY8HmIq4g8247SoFUWNt28UZNqmBN9Xy+HCL76TZ5yGtKGATWcS9NaaXPyL9/55WlWdrgyV980ijCExl7HGbVtaluO2ittqgMsc5+0lM1m2Es9bflFrTELggE9O8zLtUQl/Z1uTN3FSvSzXy0b28r9V+PhbY5M54IoggbWwCp6PI9sYktysDCUnIo9l6sFtC86LoxtwVlkoc7Wvskiwo4KRGv7qS/tCUiJbXA/pzj4i/ZYv569zQo9+AQRQsLfYW1SXjYEg16F0eCDzpfuOps9VRria9Aw0pNmRDIlDgPxwvPyimgBnnReTdyFe1W0jJn0zTaTHdJjpOAGzjPaY6UqCVPvj/aPOLmA/topAquKoP6XJ8x3Ug4puYOOAtKrUxc6QA+MiyViLUbndDw874G4ohcjCcfACAl0cZETFVFoJHYq4FpXtO08eeVwjWj9aT6U70tJazSUMxE9fUT73cYiX3iZ+bxXkDrxFD+owxogToT0xwQE/0vut21oU3CBtY0DMxSU9wiqi8NuVu/VtLfL62MB3x5uOg8LfbX9S9g61A5reOB2gleU+aIyjpDdxZGsHzVwI1STkhgxElMpzTaqDQkGbQHMEj0ECCcxvjj1l4TgGHduOvohKagiWV9yp5CUolduU4rYdjFngb+19JWIt1vF4E7RrcYUdzafZLvhaFOOToqfJu/IjrWPnk6xpXwjcZgY2tKzdd/TpV3xemopJlOwozBuhBjCjKuvR/IUAKRN/1eAagMPcFl5br2utSjS7gAFXSkUl1yrHhvkdvndnkVj7OqV7vv2h0yA0MWMGJpPAn6kshhBH5/SvgmT8FIeyL2By/T2mWHpkFCF12F6BdRm8m6/OG0VVU/fZuaaDsvt7KmTurG+RrOdVWH4s7wTXyp1n3HwhKVM7h2ijdumoUYWaH6XGweljaXci5qGX8ijw=</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX1/2fMqQfazvOI1/KlI/nD3tv2y0P97TOx/eG7Z0SfuXnQUk9v1E0z2w5uYXSav66u5dWW0iRSfdniLq/906t4yf/ge+ppabjEWIKk35F8WhUGstKSMOa7vmTUsi/3O3N+Yl+DynVL8cNrr5JXVy1K1tIukx4u/NfEC5/K0kSx5haLCGn20cMSTTiHQwne7ysooJ6W9wltjHGHbyPb4FIK6Qnk5RTowv5KalBzWX+lkomn/qU0i9N9T2t2BbJGqisNgmzQlywtJDZstJa2wLoK57K8aqzH24FeDxa1SjGbuBJSNFUBhKAU0L</t>
+    <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
   </si>
 </sst>
 </file>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E36292-D815-46AE-A8F1-EA2F7B4B3C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
-  </si>
-  <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+  </si>
+  <si>
+    <t>8:20-8:25</t>
+  </si>
+  <si>
+    <t>8:25-8:30</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E36292-D815-46AE-A8F1-EA2F7B4B3C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5353903-3408-44AE-A06F-278B7B8800FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
   </si>
   <si>
-    <t>8:20-8:25</t>
-  </si>
-  <si>
-    <t>8:25-8:30</t>
+    <t>8:35-8:40</t>
+  </si>
+  <si>
+    <t>8:40-8:45</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5353903-3408-44AE-A06F-278B7B8800FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E955B-08EA-4615-94A3-8CD96DDAF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
   </si>
   <si>
-    <t>8:35-8:40</t>
-  </si>
-  <si>
-    <t>8:40-8:45</t>
+    <t>9:05-9:10</t>
+  </si>
+  <si>
+    <t>9:10-9:15</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E955B-08EA-4615-94A3-8CD96DDAF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65766E-ADD2-41F3-AC23-047C98221AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
   </si>
   <si>
-    <t>9:05-9:10</t>
-  </si>
-  <si>
-    <t>9:10-9:15</t>
+    <t>9:30-9:35</t>
+  </si>
+  <si>
+    <t>9:35-9:40</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65766E-ADD2-41F3-AC23-047C98221AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,12 @@
     <t>№</t>
   </si>
   <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
@@ -52,12 +58,6 @@
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
-  </si>
-  <si>
-    <t>9:30-9:35</t>
-  </si>
-  <si>
-    <t>9:35-9:40</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C10:C11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9705B6-2F4D-4287-99BD-831938910325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
-  </si>
-  <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+  </si>
+  <si>
+    <t>9:30-9:35</t>
+  </si>
+  <si>
+    <t>9:35-9:40</t>
+  </si>
+  <si>
+    <t>19:25-19:30</t>
+  </si>
+  <si>
+    <t>19:30-19:35</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9705B6-2F4D-4287-99BD-831938910325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3D643-2D64-4A6B-B6BF-677E9F46E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>9:35-9:40</t>
   </si>
   <si>
-    <t>19:25-19:30</t>
-  </si>
-  <si>
-    <t>19:30-19:35</t>
+    <t>19:45-19:50</t>
+  </si>
+  <si>
+    <t>19:50-19:55</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3D643-2D64-4A6B-B6BF-677E9F46E53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A2E57-8033-4068-A7C4-4730A6C02AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>9:35-9:40</t>
   </si>
   <si>
-    <t>19:45-19:50</t>
-  </si>
-  <si>
-    <t>19:50-19:55</t>
+    <t>20:10-20:15</t>
+  </si>
+  <si>
+    <t>20:15-20:20</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A2E57-8033-4068-A7C4-4730A6C02AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
-  </si>
-  <si>
-    <t>9:30-9:35</t>
-  </si>
-  <si>
-    <t>9:35-9:40</t>
-  </si>
-  <si>
-    <t>20:10-20:15</t>
-  </si>
-  <si>
-    <t>20:15-20:20</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BFFF9-2402-490E-8C70-0901F809E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
-  </si>
-  <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+  </si>
+  <si>
+    <t>9:30-9:35</t>
+  </si>
+  <si>
+    <t>9:35-9:40</t>
+  </si>
+  <si>
+    <t>22:30-22:35</t>
+  </si>
+  <si>
+    <t>22:35-22:40</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BFFF9-2402-490E-8C70-0901F809E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65182FA5-FEF3-4661-AF0D-4B34FD765C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>9:35-9:40</t>
   </si>
   <si>
-    <t>22:30-22:35</t>
-  </si>
-  <si>
-    <t>22:35-22:40</t>
+    <t>22:40-22:45</t>
+  </si>
+  <si>
+    <t>22:45-22:50</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65182FA5-FEF3-4661-AF0D-4B34FD765C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
-  </si>
-  <si>
-    <t>9:30-9:35</t>
-  </si>
-  <si>
-    <t>9:35-9:40</t>
-  </si>
-  <si>
-    <t>22:40-22:45</t>
-  </si>
-  <si>
-    <t>22:45-22:50</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,50 +414,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1012D801-48D9-4BA6-B99B-F5007F316BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
-    <t>2:55-3:0</t>
-  </si>
-  <si>
-    <t>3:0-3:5</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
-    <t>18:55-19:0</t>
-  </si>
-  <si>
-    <t>19:0-19:5</t>
-  </si>
-  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+  </si>
+  <si>
+    <t>22:40-22:45</t>
+  </si>
+  <si>
+    <t>22:45-22:50</t>
+  </si>
+  <si>
+    <t>8:15-8:20</t>
+  </si>
+  <si>
+    <t>8:20-8:25</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,39 +414,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1012D801-48D9-4BA6-B99B-F5007F316BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2519D-989B-4105-87EB-261D80FB1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>22:45-22:50</t>
   </si>
   <si>
-    <t>8:15-8:20</t>
-  </si>
-  <si>
-    <t>8:20-8:25</t>
+    <t>8:25-8:30</t>
+  </si>
+  <si>
+    <t>8:30-8:35</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2519D-989B-4105-87EB-261D80FB1128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCB1F6-8050-4A8B-9DAC-0259AA8E6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5910" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>22:45-22:50</t>
   </si>
   <si>
-    <t>8:25-8:30</t>
-  </si>
-  <si>
-    <t>8:30-8:35</t>
+    <t>8:40-8:45</t>
+  </si>
+  <si>
+    <t>8:45-8:50</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\Тест\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCB1F6-8050-4A8B-9DAC-0259AA8E6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2580" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,28 @@
     <t>№</t>
   </si>
   <si>
+    <t>2:55-3:0</t>
+  </si>
+  <si>
+    <t>3:0-3:5</t>
+  </si>
+  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
     <t>11:0-11:5</t>
   </si>
   <si>
+    <t>18:55-19:0</t>
+  </si>
+  <si>
+    <t>19:0-19:5</t>
+  </si>
+  <si>
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
     <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
-  </si>
-  <si>
-    <t>22:40-22:45</t>
-  </si>
-  <si>
-    <t>22:45-22:50</t>
-  </si>
-  <si>
-    <t>8:40-8:45</t>
-  </si>
-  <si>
-    <t>8:45-8:50</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C9:C10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,39 +414,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28A651-2DB8-4EA7-B74D-F1BA1FA82BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CC2BB-4B5D-4D16-89DE-5BDA4C4AED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
-    <t>U2FsdGVkX19n8cfnv3oO+w3jWYd2WBYQfROoheIgxSp21K06arsG5J4EjKqVUYLAQLz3ravk/4j0kysePbk9JhERUpJwh4xR5VW1grALBMCGAqnLgSzLOt97JVpovoZNu7fU1s0WRSV5uOTOQn10mpAdri6W1mPIKdgdnMnNz/r0ATQ6oilAj9uQ5coyu3ioNrQB2vNacHWLtye/g104eTPfSYVQ18Mq1E/Kwhi70SaNmulyisLQBsZiFVoRo0QZNTXd/TDZS/CDmqws7KiKQIW2eAgToDfPJzfEKkdjfyV99CLwH0Xatmqz2YyCqi/X</t>
+    <t>U2FsdGVkX1+OSmLAeytfRFMzwftOg7BmHQT6GYLtwb17ew7I/rZrHXM2KOujqXwc/aBvndfAz6U5ltHv8g67vD7DOQSPPIUTYK2XM/4+XGMNqlxtciFXSfm7nytpBIQOWC3qB+e8ZqUaPUkacfkVQa3MwERnX8LBaNdq3C5bGlqDxO951iCgbOLjn+LuohvCFk0+u4F9shF8B/yPl2YJOZpzSQaWk8hmd7zfHrNOn6aUBWGJi7EJicqJX19/EsyqniFCxBAPKnUs6R3AanXuIXsKGPAwomOLZtwc2yQm6+GHPRacQ0HoT3LEfWC6VjjRWvNWV31EO26KUM3dWj1VRUULSQjlUzOWgYr+8solE0oMz8sxIlda08Bc0ERV4w3t</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
